--- a/TOC/Training TOC.xlsx
+++ b/TOC/Training TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praveen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4DB2A7-0AD5-CA44-9A42-FB342099EE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A8C2D8-8816-EF42-9F8F-CF5B5C7E4D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F80CBB99-0921-3D46-A9DD-2E12F6BE6302}"/>
   </bookViews>
@@ -104,19 +104,19 @@
     <t>22nd May</t>
   </si>
   <si>
-    <t>25th May</t>
-  </si>
-  <si>
-    <t>26th May</t>
-  </si>
-  <si>
-    <t>27th May</t>
-  </si>
-  <si>
-    <t>28th May</t>
-  </si>
-  <si>
-    <t>29th May</t>
+    <t>1st June</t>
+  </si>
+  <si>
+    <t>2nd June</t>
+  </si>
+  <si>
+    <t>3rd June</t>
+  </si>
+  <si>
+    <t>4th June</t>
+  </si>
+  <si>
+    <t>5th June</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
